--- a/Testes_Estatisticos.xlsx
+++ b/Testes_Estatisticos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Padrão 1</t>
   </si>
@@ -43,12 +43,15 @@
   <si>
     <t>Padrão 6</t>
   </si>
+  <si>
+    <t>Replicatas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +71,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -83,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,11 +111,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -113,11 +135,115 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -474,200 +600,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>73439.33142857143</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>114422.95142857142</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>137847.37142857144</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>168777.89142857143</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>219072.22142857144</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>281650.94142857142</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>74709.571428571435</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>114855.20142857142</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>136493.41142857145</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>172028.96142857143</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>222644.05142857143</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>276065.01142857142</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>75383.991428571433</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>116134.25142857143</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>135820.57142857142</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>172089.50142857144</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>222438.49142857143</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>277585.04142857145</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>76085.281428571427</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>117401.73142857144</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>136135.26142857142</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>173948.81142857144</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>223538.30142857143</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>278630.83142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>76761.001428571428</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>117268.61142857143</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>137848.39142857143</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>175236.13142857142</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>220192.94142857144</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>281322.57142857142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>76516.321428571435</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>117733.62142857144</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>138811.59142857144</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>175135.40142857144</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>220294.16142857145</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>280352.98142857145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>76067.531428571427</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>115657.58142857143</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>138185.08142857143</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>175373.97142857144</v>
       </c>
-      <c r="E8" s="2">
-        <v>220751.10142857142</v>
-      </c>
       <c r="F8" s="2">
+        <v>220294.16142857145</v>
+      </c>
+      <c r="G8" s="2">
         <v>281291.21142857143</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:F8">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="B2:G8">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G8">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G8">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G8">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G8">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F8">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F8">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F8">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F8">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
